--- a/Versao-FInal/codigo_database.xlsx
+++ b/Versao-FInal/codigo_database.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
@@ -619,6 +619,244 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DES1817</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10/10/2025 07:27:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DES1818</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10/10/2025 08:01:49</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DES1819</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10/10/2025 08:10:30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DES1820</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10/10/2025 08:12:05</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DES1821</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10/10/2025 08:13:39</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DES1822</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10/10/2025 08:41:16</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DES1823</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10/10/2025 09:16:57</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DES1824</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10/10/2025 09:18:28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DES1825</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10/10/2025 09:33:38</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DES1826</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10/10/2025 10:08:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DES1827</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10/10/2025 10:13:08</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DES1828</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10/10/2025 10:16:22</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DES1829</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10/10/2025 10:16:52</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DES1830</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10/10/2025 10:45:48</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Versao-FInal/codigo_database.xlsx
+++ b/Versao-FInal/codigo_database.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
@@ -857,6 +857,23 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DES1831</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13/10/2025 07:30:10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Versao-FInal/codigo_database.xlsx
+++ b/Versao-FInal/codigo_database.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
@@ -874,6 +874,176 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>VDS1832</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>15/10/2025 07:28:26</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>VDS1833</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>15/10/2025 07:48:59</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>VDS1834</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15/10/2025 10:09:49</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Chorão-as-rosas</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>VDS1835</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>15/10/2025 10:11:46</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Noroaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>VDS1836</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>15/10/2025 10:15:13</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Noroaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>VDS1837</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>15/10/2025 10:19:27</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>VDS1838</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>15/10/2025 10:19:39</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>VDS1839</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>15/10/2025 10:19:53</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>VDS1840</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>15/10/2025 10:42:19</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>VDS1841</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>15/10/2025 10:42:43</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Versao-FInal/codigo_database.xlsx
+++ b/Versao-FInal/codigo_database.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
@@ -1044,6 +1044,159 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>VDS1842</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:01:13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>VDS1843</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:05:59</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>555555555</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>VDS1844</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:06:15</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>555555555</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>VDS1845</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:06:34</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>555555555</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>VDS1846</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:06:56</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>555555555</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>VDS1847</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:08:04</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>555555555</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>VDS1848</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:08:32</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>555555555</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>VDS1849</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:34:44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>123563</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>VDS1850</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:34:50</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>123563</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Versao-FInal/codigo_database.xlsx
+++ b/Versao-FInal/codigo_database.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
@@ -1197,6 +1197,125 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>VDS1851</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:48:35</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>898989898989</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>VDS1852</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>15/10/2025 11:48:51</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>898989898989</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>VDS1853</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>15/10/2025 16:45:06</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>VDS1854</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>16/10/2025 08:42:19</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>VDS1855</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16/10/2025 08:42:41</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>VDS1856</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>16/10/2025 08:46:23</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>VDS1857</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>16/10/2025 10:05:48</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Eduarda - Aproveitamento</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Versao-FInal/codigo_database.xlsx
+++ b/Versao-FInal/codigo_database.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
@@ -1316,6 +1316,23 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>VDS1858</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>16/10/2025 14:56:23</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>40028922</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
